--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -3334,7 +3334,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="44.57642857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
